--- a/ResultadoEleicoesDistritos/PORTALEGRE_MARVÃO.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_MARVÃO.xlsx
@@ -597,64 +597,64 @@
         <v>760</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J2" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T2" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
